--- a/data/financial_statements/sofp/TRV.xlsx
+++ b/data/financial_statements/sofp/TRV.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -104,9 +224,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -159,12 +276,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -461,1604 +575,1643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN28"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>799000000</v>
+      </c>
+      <c r="C2">
         <v>773000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>710000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>752000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>761000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>818000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>689000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>663000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>721000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>583000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>623000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>544000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>494000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>508000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>416000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>357000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>373000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>359000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>415000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>397000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>344000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>379000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>328000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>249000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>307000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>269000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>265000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>361000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>380000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>344000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>317000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>308000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>374000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>367000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>311000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>260000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>294000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>295000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>308000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>243000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>21588000000</v>
+      </c>
+      <c r="C3">
         <v>22036000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>22572000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>22494000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>21329000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>21726000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>21860000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>21948000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>21193000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>21791000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>21811000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>22018000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>21432000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>21943000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>22171000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>21974000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>21239000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>21555000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>21572000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>21446000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>20779000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>21057000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>20860000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>20624000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>20207000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>20771000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>20884000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>20872000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>20377000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>20687000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>20984000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>20896000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>20598000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>20933000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>21230000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>21104000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>20967000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>21122000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>21516000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>22070000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>22387000000</v>
+      </c>
+      <c r="C4">
         <v>22809000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>23282000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>23246000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>22090000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>22544000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>22549000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>22611000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>21914000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>22374000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>22434000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>22562000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>21926000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>22451000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>22587000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>22331000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>21612000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>21914000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>21987000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>21843000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>21123000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>21436000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>21188000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>20873000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>20514000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>21040000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>21149000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>21233000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>20757000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>21031000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>21301000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>21204000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>20972000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>21300000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>21541000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>21364000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>21261000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>21417000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>21824000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>22313000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>81104000000</v>
+      </c>
+      <c r="C5">
         <v>78696000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>81071000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>84234000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>87990000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>88071000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>87153000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>84456000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>85026000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>84115000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>81197000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>77217000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>78502000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>77995000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>76111000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>75108000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>72902000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>72436000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>71771000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>72291000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>73108000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>73660000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>72933000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>71832000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>71118000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>73550000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>73097000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>72277000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>71112000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>72672000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>71885000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>73247000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>73946000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>74853000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>74651000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>74404000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>73894000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>73204000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>72001000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>73767000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>4239000000</v>
+      </c>
+      <c r="C6">
         <v>4209000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>4261000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>4302000000</v>
-      </c>
-      <c r="E6">
-        <v>4314000000</v>
       </c>
       <c r="F6">
         <v>4314000000</v>
       </c>
       <c r="G6">
+        <v>4314000000</v>
+      </c>
+      <c r="H6">
         <v>4334000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4335000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4293000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4263000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4244000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>4237000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>4291000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>4258000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>4278000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>4290000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>4282000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>4309000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>4287000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>4300000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>4293000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>4291000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>3853000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>3850000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>3848000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>3856000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>3862000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>3863000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>3852000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>3859000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>3878000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>3882000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>3915000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>3937000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>3962000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>3963000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>3985000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>3712000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>3723000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>3735000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>4713000000</v>
+      </c>
+      <c r="C7">
         <v>5033000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4150000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3307000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2542000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2570000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2501000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2411000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2358000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2406000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2367000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2307000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2273000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2321000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2281000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>2305000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2565000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2707000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2624000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>2454000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>2095000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2320000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>2252000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>2248000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>2388000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>1975000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>1954000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>1899000000</v>
-      </c>
-      <c r="AC7">
-        <v>2145000000</v>
       </c>
       <c r="AD7">
         <v>2145000000</v>
       </c>
       <c r="AE7">
+        <v>2145000000</v>
+      </c>
+      <c r="AF7">
         <v>2107000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1847000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>1868000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>1890000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1879000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>1836000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>2107000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>2123000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>2059000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1795000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>3274000000</v>
+      </c>
+      <c r="C8">
         <v>3570000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>3823000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3503000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3530000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3207000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>3222000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3219000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3173000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>3226000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>3095000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3113000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>3130000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>3216000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>3315000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>3212000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2872000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>3024000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>2854000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>2788000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>2864000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>2604000000</v>
-      </c>
-      <c r="W8">
-        <v>2443000000</v>
       </c>
       <c r="X8">
         <v>2443000000</v>
       </c>
       <c r="Y8">
+        <v>2443000000</v>
+      </c>
+      <c r="Z8">
         <v>2377000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>2366000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>2384000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>2408000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>2318000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>2403000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>2493000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>2511000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>2377000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>2542000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>2778000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>2567000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>2565000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>2229000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>2293000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>2287000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>93330000000</v>
+      </c>
+      <c r="C9">
         <v>91508000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>93305000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>95346000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>98376000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>98162000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>97210000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>94421000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>94850000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>94010000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>90903000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>86874000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>88196000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>87790000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>85985000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>84915000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>82621000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>82476000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>81536000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>81833000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>82360000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>82875000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>81481000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>80373000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>79731000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>81747000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>81297000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>80447000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>79427000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>81079000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>80363000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>81487000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>82106000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>83222000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>83270000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>82770000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>82551000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>81268000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>80076000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>81584000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>115717000000</v>
+      </c>
+      <c r="C10">
         <v>114317000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>116587000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>118592000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>120466000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>120706000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>119759000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>117032000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>116764000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>116384000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>113337000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>109436000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>110122000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>110241000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>108572000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>107246000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>104233000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>104390000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>103523000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>103676000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>103483000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>104311000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>102669000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>101246000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>100245000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>102787000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>102446000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>101680000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>100184000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>102110000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>101664000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>102691000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>103078000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>104522000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>104811000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>104134000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>103812000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>102685000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>101900000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>103897000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>77308000000</v>
+      </c>
+      <c r="C11">
         <v>77131000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>76414000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>75459000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>73760000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>74103000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>72754000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>71784000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>70099000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>70515000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>68874000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>67532000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>66816000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>67097000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>66202000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>65475000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>64512000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>64827000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>64112000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>63732000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>62839000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>63420000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>61990000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>61563000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>60551000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>61305000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>60874000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>61409000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>60562000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>61319000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>61414000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>61433000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>62025000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>63074000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>63342000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>62875000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>63043000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>61307000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>61572000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>61883000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>3596000000</v>
+      </c>
+      <c r="C12">
         <v>3767000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>3753000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>3920000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>3911000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4043000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>4035000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4290000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4261000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>4368000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>4336000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>4654000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>4619000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>4802000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>4776000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>4811000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>4785000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>4887000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>4830000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>4835000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>4775000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>4757000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>4700000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>4668000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>4609000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>4580000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>4541000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>4419000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>4374000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>4390000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>4473000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>4396000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>4362000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>4367000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>4371000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>4361000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>4328000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>4450000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>4448000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>4824000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>80904000000</v>
+      </c>
+      <c r="C13">
         <v>80898000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>80167000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>79379000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>77671000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>78146000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>76789000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>76074000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>74360000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>74883000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>73210000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>72186000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>71435000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>71899000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>70978000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>70286000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>69297000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>69714000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>68942000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>68567000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>67614000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>68177000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>66690000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>66231000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>65160000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>65885000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>65415000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>65828000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>64936000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>65709000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>65887000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>65829000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>66387000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>67441000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>67713000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>67236000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>67371000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>65757000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>66020000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>66707000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
-        <v>7291000000</v>
+        <v>7292000000</v>
       </c>
       <c r="C14">
         <v>7291000000</v>
@@ -2067,7 +2220,7 @@
         <v>7291000000</v>
       </c>
       <c r="E14">
-        <v>7290000000</v>
+        <v>7291000000</v>
       </c>
       <c r="F14">
         <v>7290000000</v>
@@ -2076,22 +2229,22 @@
         <v>7290000000</v>
       </c>
       <c r="H14">
-        <v>6550000000</v>
+        <v>7290000000</v>
       </c>
       <c r="I14">
         <v>6550000000</v>
       </c>
       <c r="J14">
+        <v>6550000000</v>
+      </c>
+      <c r="K14">
         <v>7050000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>7049000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>6559000000</v>
-      </c>
-      <c r="M14">
-        <v>6558000000</v>
       </c>
       <c r="N14">
         <v>6558000000</v>
@@ -2100,792 +2253,810 @@
         <v>6558000000</v>
       </c>
       <c r="P14">
+        <v>6558000000</v>
+      </c>
+      <c r="Q14">
         <v>7057000000</v>
-      </c>
-      <c r="Q14">
-        <v>6564000000</v>
       </c>
       <c r="R14">
         <v>6564000000</v>
       </c>
       <c r="S14">
+        <v>6564000000</v>
+      </c>
+      <c r="T14">
         <v>6464000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>6963000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>6571000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>6921000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>6920000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>6438000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>6437000000</v>
-      </c>
-      <c r="Z14">
-        <v>6436000000</v>
       </c>
       <c r="AA14">
         <v>6436000000</v>
       </c>
       <c r="AB14">
-        <v>6344000000</v>
+        <v>6436000000</v>
       </c>
       <c r="AC14">
         <v>6344000000</v>
       </c>
       <c r="AD14">
+        <v>6344000000</v>
+      </c>
+      <c r="AE14">
         <v>6743000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>6350000000</v>
-      </c>
-      <c r="AF14">
-        <v>6349000000</v>
       </c>
       <c r="AG14">
         <v>6349000000</v>
       </c>
       <c r="AH14">
+        <v>6349000000</v>
+      </c>
+      <c r="AI14">
         <v>6348000000</v>
-      </c>
-      <c r="AI14">
-        <v>6347000000</v>
       </c>
       <c r="AJ14">
         <v>6347000000</v>
       </c>
       <c r="AK14">
-        <v>6346000000</v>
+        <v>6347000000</v>
       </c>
       <c r="AL14">
         <v>6346000000</v>
       </c>
       <c r="AM14">
+        <v>6346000000</v>
+      </c>
+      <c r="AN14">
         <v>5852000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>5851000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>-2175000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-1374000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-662000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>289000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>274000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>415000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>293000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>558000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>448000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>409000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-9000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>137000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>188000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>87000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>171000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>370000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>82000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>126000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>122000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>239000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>54000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>352000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>5961000000</v>
+      </c>
+      <c r="C16">
         <v>6222000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>6255000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>6391000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>6329000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>6522000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>6109000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>5846000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>6095000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>6154000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>5726000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>5487000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>6049000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>5989000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>5628000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>5563000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>5478000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>5652000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>5494000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>5167000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>5567000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>5475000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>5201000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>4965000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>5427000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>5856000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>5511000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>5260000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>5306000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>5625000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>5306000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>5540000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>5506000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>5290000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>4980000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>5110000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>5299000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>5771000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>5138000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>5391000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>13253000000</v>
+      </c>
+      <c r="C17">
         <v>13513000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>13546000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>13682000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>13908000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>14086000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>13814000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>12689000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>13203000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>13652000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>13184000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>12046000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>12744000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>12735000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>12273000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>12620000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>12042000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>12216000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>11958000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>12130000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>12138000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>12396000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>12121000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>11403000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>11864000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>12463000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>12317000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>11686000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>11650000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>12368000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>11656000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>12015000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>11855000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>11760000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>11566000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>11511000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>11645000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>12117000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>10990000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>11594000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>94157000000</v>
+      </c>
+      <c r="C18">
         <v>94411000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>93713000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>93061000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>91579000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>92232000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>90603000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>88763000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>87563000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>88535000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>86394000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>84232000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>84179000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>84634000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>83251000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>82906000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>81339000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>81930000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>80900000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>80697000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>79752000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>80573000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>78811000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>77634000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>77024000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>78348000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>77732000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>77514000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>76586000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>78077000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>77543000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>77844000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>78242000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>79201000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>79279000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>78747000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>79016000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>77874000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>77010000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>78301000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>24565000000</v>
+      </c>
+      <c r="C19">
         <v>24472000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>24419000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>24348000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>24154000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>24084000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>24002000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>23905000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>23743000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>23646000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>23606000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>23542000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>23469000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>23432000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>23372000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>23243000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>23144000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>23089000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>23040000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>22995000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>22886000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>22836000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>22781000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>22724000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>22614000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>22419000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>22349000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>22269000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>22172000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>22099000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>22039000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>21982000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>21843000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>21764000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>21694000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>21603000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>21500000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>21425000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>21367000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>21300000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>43516000000</v>
+      </c>
+      <c r="C20">
         <v>42917000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>42684000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>42359000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>41555000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>40438000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>39998000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>39285000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>38771000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>37679000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>37069000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>37325000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>36977000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>36317000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>36135000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>35795000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>35204000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>34799000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>34296000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>33981000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>33462000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>33110000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>33016000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>32623000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>32196000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>31443000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>30921000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>30454000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>29945000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>29263000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>28524000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>27906000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>27251000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>26394000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>25662000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>25167000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>24291000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>23485000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>22806000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>22072000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>40076000000</v>
+      </c>
+      <c r="C21">
         <v>39575000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>39074000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>38574000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>38015000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>37214000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>36613000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>36212000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>35815000000</v>
-      </c>
-      <c r="J21">
-        <v>35614000000</v>
       </c>
       <c r="K21">
         <v>35614000000</v>
@@ -2894,828 +3065,849 @@
         <v>35614000000</v>
       </c>
       <c r="M21">
+        <v>35614000000</v>
+      </c>
+      <c r="N21">
         <v>35143000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>34767000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>34392000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>34016000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>33595000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>33425000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>33025000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>32675000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>32274000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>31923000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>31595000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>31120000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>30834000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>30083000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>29521000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>28971000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>28362000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>27361000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>26611000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>25810000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>25138000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>24137000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>23386000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>22510000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>21805000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>20804000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>20003000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>19702000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>21560000000</v>
+      </c>
+      <c r="C22">
         <v>19906000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>22874000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>25531000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>28887000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>28474000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>29156000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>28269000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>29201000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>27849000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>26943000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>25204000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>25943000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>25607000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>25321000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>24340000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>22894000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>22460000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>22623000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>22979000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>23731000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>23738000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>23858000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>23612000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>23221000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>24439000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>24714000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>24166000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>23598000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>24033000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>24121000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>24847000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>24836000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>25321000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>25532000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>25387000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>24796000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>24811000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>24890000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>25596000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>21560000000</v>
+      </c>
+      <c r="C23">
         <v>19906000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>22874000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>25531000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>28887000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>28474000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>29156000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>28269000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>29201000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>27849000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>26943000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>25204000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>25943000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>25607000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>25321000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>24340000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>22894000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>22460000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>22623000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>22979000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>23731000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>23738000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>23858000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>23612000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>23221000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>24439000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>24714000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>24166000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>23598000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>24033000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>24121000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>24847000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>24836000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>25321000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>25532000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>25387000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>24796000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>24811000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>24890000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>25596000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>115717000000</v>
+      </c>
+      <c r="C24">
         <v>114317000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>116587000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>118592000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>120466000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>120706000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>119759000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>117032000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>116764000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>116384000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>113337000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>109436000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>110122000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>110241000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>108572000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>107246000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>104233000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>104390000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>103523000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>103676000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>103483000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>104311000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>102669000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>101246000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>100245000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>102787000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>102446000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>101680000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>100184000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>102110000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>101664000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>102691000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>103078000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>104522000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>104811000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>104134000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>103812000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>102685000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>101900000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>103897000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>232100000</v>
+      </c>
+      <c r="C25">
         <v>234300000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>237300000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>240000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>241200000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>246000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>249500000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>251500000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>252400000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>253300000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>253200000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>252800000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>255500000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>258100000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>260300000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>261900000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>263600000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>264800000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>267700000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>270200000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>271400000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>273700000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>275900000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>279400000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>279600000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>284100000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>288300000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>292400000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>295900000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>304200000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>311200000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>318700000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>322200000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>331400000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>339000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>347500000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>353500000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>364100000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>373500000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>376400000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>17321000000</v>
+      </c>
+      <c r="C26">
         <v>15697000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>18613000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>21229000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>24573000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>24160000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>24822000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>23934000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>24908000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>23586000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>22699000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>20967000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>21652000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>21349000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>21043000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>20050000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>18612000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>18151000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>18336000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>18679000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>19438000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>19447000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>20005000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>19762000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>19373000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>20583000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>20852000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>20303000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>19746000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>20174000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>20243000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>20965000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>20921000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>21384000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>21570000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>21424000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>20811000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>21099000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>21167000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>21861000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>6493000000</v>
+      </c>
+      <c r="C27">
         <v>6518000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>6581000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>6539000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>6529000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>6472000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>6601000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>5887000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5829000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>6467000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>6426000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>6015000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>6064000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>6050000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>6142000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>6700000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>6191000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>6205000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>6049000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>6566000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>6227000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>6542000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>6592000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>6189000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>6130000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>6167000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>6171000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>5983000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>5964000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>6399000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>6033000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>6041000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>5975000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>5981000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>6036000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>6087000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>6052000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>6051000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>5544000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>5608000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
-        <v>7291000000</v>
+        <v>7292000000</v>
       </c>
       <c r="C28">
         <v>7291000000</v>
@@ -3724,7 +3916,7 @@
         <v>7291000000</v>
       </c>
       <c r="E28">
-        <v>7290000000</v>
+        <v>7291000000</v>
       </c>
       <c r="F28">
         <v>7290000000</v>
@@ -3733,22 +3925,22 @@
         <v>7290000000</v>
       </c>
       <c r="H28">
-        <v>6550000000</v>
+        <v>7290000000</v>
       </c>
       <c r="I28">
         <v>6550000000</v>
       </c>
       <c r="J28">
+        <v>6550000000</v>
+      </c>
+      <c r="K28">
         <v>7050000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>7049000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>6559000000</v>
-      </c>
-      <c r="M28">
-        <v>6558000000</v>
       </c>
       <c r="N28">
         <v>6558000000</v>
@@ -3757,78 +3949,81 @@
         <v>6558000000</v>
       </c>
       <c r="P28">
+        <v>6558000000</v>
+      </c>
+      <c r="Q28">
         <v>7057000000</v>
-      </c>
-      <c r="Q28">
-        <v>6564000000</v>
       </c>
       <c r="R28">
         <v>6564000000</v>
       </c>
       <c r="S28">
+        <v>6564000000</v>
+      </c>
+      <c r="T28">
         <v>6464000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>6963000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>6571000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>6921000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>6920000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>6438000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>6437000000</v>
-      </c>
-      <c r="Z28">
-        <v>6436000000</v>
       </c>
       <c r="AA28">
         <v>6436000000</v>
       </c>
       <c r="AB28">
-        <v>6344000000</v>
+        <v>6436000000</v>
       </c>
       <c r="AC28">
         <v>6344000000</v>
       </c>
       <c r="AD28">
+        <v>6344000000</v>
+      </c>
+      <c r="AE28">
         <v>6743000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>6350000000</v>
-      </c>
-      <c r="AF28">
-        <v>6349000000</v>
       </c>
       <c r="AG28">
         <v>6349000000</v>
       </c>
       <c r="AH28">
+        <v>6349000000</v>
+      </c>
+      <c r="AI28">
         <v>6348000000</v>
-      </c>
-      <c r="AI28">
-        <v>6347000000</v>
       </c>
       <c r="AJ28">
         <v>6347000000</v>
       </c>
       <c r="AK28">
-        <v>6346000000</v>
+        <v>6347000000</v>
       </c>
       <c r="AL28">
         <v>6346000000</v>
       </c>
       <c r="AM28">
+        <v>6346000000</v>
+      </c>
+      <c r="AN28">
         <v>5852000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>5851000000</v>
       </c>
     </row>
